--- a/Data_preparation/datasets/final_data/PURE_STORAGE_A.xlsx
+++ b/Data_preparation/datasets/final_data/PURE_STORAGE_A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,99 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>QCOM</t>
-  </si>
-  <si>
-    <t>MRVL</t>
-  </si>
-  <si>
-    <t>NOW</t>
-  </si>
-  <si>
-    <t>VRNT</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>VNET</t>
-  </si>
-  <si>
-    <t>NICE</t>
-  </si>
-  <si>
-    <t>BAH</t>
-  </si>
-  <si>
-    <t>SNPS</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>PRO</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>BABA</t>
-  </si>
-  <si>
-    <t>SMCI</t>
-  </si>
-  <si>
-    <t>GOOGL</t>
-  </si>
-  <si>
-    <t>SHOP</t>
-  </si>
-  <si>
-    <t>TSEM</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>SNAP</t>
-  </si>
-  <si>
-    <t>BIDU</t>
-  </si>
-  <si>
-    <t>NTAP</t>
-  </si>
-  <si>
-    <t>CRWD</t>
-  </si>
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>MCHP</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>CSCO</t>
-  </si>
-  <si>
-    <t>LSCC</t>
-  </si>
-  <si>
-    <t>OKTA</t>
   </si>
 </sst>
 </file>
@@ -745,22 +652,22 @@
         <v>42035</v>
       </c>
       <c r="D2">
-        <v>45.94428254794989</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>53.31124877929688</v>
+        <v>17.6299991607666</v>
       </c>
       <c r="F2">
-        <v>53.35536055254345</v>
+        <v>20.60000038146973</v>
       </c>
       <c r="G2">
-        <v>45.77517806828758</v>
+        <v>15.5</v>
       </c>
       <c r="H2">
-        <v>1079000000</v>
+        <v>328636590</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K2">
         <v>-192707000</v>
@@ -831,22 +738,22 @@
         <v>42124</v>
       </c>
       <c r="D3">
-        <v>12.74488792780431</v>
+        <v>17</v>
       </c>
       <c r="E3">
-        <v>12.64545917510986</v>
+        <v>17.6299991607666</v>
       </c>
       <c r="F3">
-        <v>13.14260035252423</v>
+        <v>20.60000038146973</v>
       </c>
       <c r="G3">
-        <v>11.79580038219858</v>
+        <v>15.5</v>
       </c>
       <c r="H3">
-        <v>862100000</v>
+        <v>328636590</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P3">
         <v>74077000</v>
@@ -908,22 +815,22 @@
         <v>42216</v>
       </c>
       <c r="D4">
-        <v>80.5</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>70.95999908447266</v>
+        <v>17.6299991607666</v>
       </c>
       <c r="F4">
-        <v>80.95999908447266</v>
+        <v>20.60000038146973</v>
       </c>
       <c r="G4">
-        <v>64.29000091552734</v>
+        <v>15.5</v>
       </c>
       <c r="H4">
-        <v>207519000</v>
+        <v>328636590</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K4">
         <v>-128282000</v>
@@ -1000,22 +907,22 @@
         <v>42308</v>
       </c>
       <c r="D5">
-        <v>24.30973052978516</v>
+        <v>18.35000038146973</v>
       </c>
       <c r="E5">
-        <v>23.86653137207031</v>
+        <v>12.90999984741211</v>
       </c>
       <c r="F5">
-        <v>25.31838989257812</v>
+        <v>18.35899925231934</v>
       </c>
       <c r="G5">
-        <v>22.66938400268555</v>
+        <v>12.26000022888184</v>
       </c>
       <c r="H5">
-        <v>60308678</v>
+        <v>328636590</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>3262550749</v>
@@ -1113,22 +1020,22 @@
         <v>42400</v>
       </c>
       <c r="D6">
-        <v>21.77208002677406</v>
+        <v>12.96000003814697</v>
       </c>
       <c r="E6">
-        <v>21.82173156738281</v>
+        <v>14.38000011444092</v>
       </c>
       <c r="F6">
-        <v>22.31824352975136</v>
+        <v>14.47999954223633</v>
       </c>
       <c r="G6">
-        <v>20.89641115827674</v>
+        <v>11.05000019073486</v>
       </c>
       <c r="H6">
-        <v>14840390000</v>
+        <v>328636590</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>2473726604</v>
@@ -1226,22 +1133,22 @@
         <v>42490</v>
       </c>
       <c r="D7">
-        <v>20.13999938964844</v>
+        <v>14.51000022888184</v>
       </c>
       <c r="E7">
-        <v>14.52000045776367</v>
+        <v>11.77999973297119</v>
       </c>
       <c r="F7">
-        <v>20.25</v>
+        <v>15.19999980926514</v>
       </c>
       <c r="G7">
-        <v>12.52999973297119</v>
+        <v>11.05000019073486</v>
       </c>
       <c r="H7">
-        <v>263895614</v>
+        <v>328636590</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>2795217916</v>
@@ -1339,22 +1246,22 @@
         <v>42582</v>
       </c>
       <c r="D8">
-        <v>67.30164545273598</v>
+        <v>12.60000038146973</v>
       </c>
       <c r="E8">
-        <v>67.94705963134766</v>
+        <v>11.71000003814697</v>
       </c>
       <c r="F8">
-        <v>68.20522681790243</v>
+        <v>13.97000026702881</v>
       </c>
       <c r="G8">
-        <v>66.35835305168469</v>
+        <v>11</v>
       </c>
       <c r="H8">
-        <v>61741703</v>
+        <v>328636590</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>2449585303</v>
@@ -1452,22 +1359,22 @@
         <v>42674</v>
       </c>
       <c r="D9">
-        <v>26.08935555313321</v>
+        <v>12.32999992370606</v>
       </c>
       <c r="E9">
-        <v>32.42730331420898</v>
+        <v>13.94999980926514</v>
       </c>
       <c r="F9">
-        <v>33.05337884225837</v>
+        <v>15.14000034332275</v>
       </c>
       <c r="G9">
-        <v>25.64338327185894</v>
+        <v>11.4399995803833</v>
       </c>
       <c r="H9">
-        <v>123248686</v>
+        <v>328636590</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>2426151161</v>
@@ -1565,22 +1472,22 @@
         <v>42766</v>
       </c>
       <c r="D10">
-        <v>63.06000137329102</v>
+        <v>11.36999988555908</v>
       </c>
       <c r="E10">
-        <v>71.44000244140625</v>
+        <v>11.39999961853027</v>
       </c>
       <c r="F10">
-        <v>73.08000183105469</v>
+        <v>12.34000015258789</v>
       </c>
       <c r="G10">
-        <v>62.2400016784668</v>
+        <v>11.0600004196167</v>
       </c>
       <c r="H10">
-        <v>185748673</v>
+        <v>328636590</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>2272581706</v>
@@ -1678,22 +1585,22 @@
         <v>42855</v>
       </c>
       <c r="D11">
-        <v>105.2824839738816</v>
+        <v>10.60000038146973</v>
       </c>
       <c r="E11">
-        <v>100.4015350341797</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="F11">
-        <v>105.525874177026</v>
+        <v>13.10000038146973</v>
       </c>
       <c r="G11">
-        <v>98.53335616363826</v>
+        <v>9.810000419616699</v>
       </c>
       <c r="H11">
-        <v>931519242</v>
+        <v>328636590</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>2192146339</v>
@@ -1791,22 +1698,22 @@
         <v>42947</v>
       </c>
       <c r="D12">
-        <v>28.84000015258789</v>
+        <v>12.11999988555908</v>
       </c>
       <c r="E12">
-        <v>26.34000015258789</v>
+        <v>14.89000034332275</v>
       </c>
       <c r="F12">
-        <v>29.97999954223633</v>
+        <v>15.09000015258789</v>
       </c>
       <c r="G12">
-        <v>24.48999977111816</v>
+        <v>12</v>
       </c>
       <c r="H12">
-        <v>48253392</v>
+        <v>328636590</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>2519079791</v>
@@ -1904,22 +1811,22 @@
         <v>43039</v>
       </c>
       <c r="D13">
-        <v>27.76754404304676</v>
+        <v>16.6299991607666</v>
       </c>
       <c r="E13">
-        <v>29.36128807067871</v>
+        <v>18.47999954223633</v>
       </c>
       <c r="F13">
-        <v>29.5525363117698</v>
+        <v>19.27499961853028</v>
       </c>
       <c r="G13">
-        <v>27.35772563911961</v>
+        <v>16.28000068664551</v>
       </c>
       <c r="H13">
-        <v>174270076</v>
+        <v>328636590</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>3474667399</v>
@@ -2017,22 +1924,22 @@
         <v>43131</v>
       </c>
       <c r="D14">
-        <v>40.04395874521859</v>
+        <v>20.10000038146973</v>
       </c>
       <c r="E14">
-        <v>41.37875747680664</v>
+        <v>21.67000007629395</v>
       </c>
       <c r="F14">
-        <v>42.73034651222623</v>
+        <v>22.60000038146973</v>
       </c>
       <c r="G14">
-        <v>35.29241164327789</v>
+        <v>18.3700008392334</v>
       </c>
       <c r="H14">
-        <v>4757218036</v>
+        <v>328636590</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>4366013749</v>
@@ -2130,22 +2037,22 @@
         <v>43220</v>
       </c>
       <c r="D15">
-        <v>29.79999923706055</v>
+        <v>20.13999938964844</v>
       </c>
       <c r="E15">
-        <v>26.26000022888184</v>
+        <v>21.45999908447266</v>
       </c>
       <c r="F15">
-        <v>30.10000038146973</v>
+        <v>24.30999946594238</v>
       </c>
       <c r="G15">
-        <v>24.76000022888184</v>
+        <v>19.6200008392334</v>
       </c>
       <c r="H15">
-        <v>158300823</v>
+        <v>328636590</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>4637491335</v>
@@ -2246,22 +2153,22 @@
         <v>43312</v>
       </c>
       <c r="D16">
-        <v>27.97210020819945</v>
+        <v>21.77000045776367</v>
       </c>
       <c r="E16">
-        <v>28.09128570556641</v>
+        <v>26.84000015258789</v>
       </c>
       <c r="F16">
-        <v>28.76056376347318</v>
+        <v>27.14999961853028</v>
       </c>
       <c r="G16">
-        <v>26.88108696871215</v>
+        <v>21.07999992370605</v>
       </c>
       <c r="H16">
-        <v>174270076</v>
+        <v>328636590</v>
       </c>
       <c r="I16" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>5000985410</v>
@@ -2362,22 +2269,22 @@
         <v>43404</v>
       </c>
       <c r="D17">
-        <v>193.5399932861328</v>
+        <v>20.27000045776367</v>
       </c>
       <c r="E17">
-        <v>198.6300048828125</v>
+        <v>18.90999984741211</v>
       </c>
       <c r="F17">
-        <v>201.3699951171875</v>
+        <v>22.5</v>
       </c>
       <c r="G17">
-        <v>174.6600036621094</v>
+        <v>16.56999969482422</v>
       </c>
       <c r="H17">
-        <v>24003656</v>
+        <v>328636590</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>4766000441</v>
@@ -2478,22 +2385,22 @@
         <v>43496</v>
       </c>
       <c r="D18">
-        <v>159.5487626816853</v>
+        <v>17.85000038146973</v>
       </c>
       <c r="E18">
-        <v>173.8226776123047</v>
+        <v>20.47999954223633</v>
       </c>
       <c r="F18">
-        <v>175.6270923461549</v>
+        <v>20.75</v>
       </c>
       <c r="G18">
-        <v>155.512558863845</v>
+        <v>17.85000038146973</v>
       </c>
       <c r="H18">
-        <v>2319000000</v>
+        <v>328636590</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>4327355760</v>
@@ -2594,22 +2501,22 @@
         <v>43585</v>
       </c>
       <c r="D19">
-        <v>2.247999906539917</v>
+        <v>23.19000053405762</v>
       </c>
       <c r="E19">
-        <v>1.899999976158142</v>
+        <v>15.85999965667725</v>
       </c>
       <c r="F19">
-        <v>2.303999900817871</v>
+        <v>23.29999923706055</v>
       </c>
       <c r="G19">
-        <v>1.820999979972839</v>
+        <v>15.17099952697754</v>
       </c>
       <c r="H19">
-        <v>594273308</v>
+        <v>328636590</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>5599112487</v>
@@ -2710,22 +2617,22 @@
         <v>43677</v>
       </c>
       <c r="D20">
-        <v>60.4644694886448</v>
+        <v>15.21000003814697</v>
       </c>
       <c r="E20">
-        <v>59.11875152587891</v>
+        <v>16.28000068664551</v>
       </c>
       <c r="F20">
-        <v>61.39157352261505</v>
+        <v>16.43000030517578</v>
       </c>
       <c r="G20">
-        <v>56.74611594136378</v>
+        <v>12.67500019073486</v>
       </c>
       <c r="H20">
-        <v>5817000000</v>
+        <v>328636590</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>3831805643</v>
@@ -2826,22 +2733,22 @@
         <v>43769</v>
       </c>
       <c r="D21">
-        <v>2.049999952316284</v>
+        <v>19.54999923706055</v>
       </c>
       <c r="E21">
-        <v>2.130000114440918</v>
+        <v>16.06999969482422</v>
       </c>
       <c r="F21">
-        <v>2.249000072479248</v>
+        <v>20.5</v>
       </c>
       <c r="G21">
-        <v>2.000999927520752</v>
+        <v>15.80000019073486</v>
       </c>
       <c r="H21">
-        <v>594273308</v>
+        <v>328636590</v>
       </c>
       <c r="I21" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>4985244177</v>
@@ -2942,22 +2849,22 @@
         <v>43863</v>
       </c>
       <c r="D22">
-        <v>46.82500076293945</v>
+        <v>17.84000015258789</v>
       </c>
       <c r="E22">
-        <v>46.33100128173828</v>
+        <v>15.26000022888184</v>
       </c>
       <c r="F22">
-        <v>59.38899993896485</v>
+        <v>19.75</v>
       </c>
       <c r="G22">
-        <v>42.04999923706055</v>
+        <v>14.65999984741211</v>
       </c>
       <c r="H22">
-        <v>1220418767</v>
+        <v>328636590</v>
       </c>
       <c r="I22" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>4634683063</v>
@@ -3058,22 +2965,22 @@
         <v>43954</v>
       </c>
       <c r="D23">
-        <v>18.73999977111816</v>
+        <v>13.96000003814697</v>
       </c>
       <c r="E23">
-        <v>20.11000061035156</v>
+        <v>17.61000061035156</v>
       </c>
       <c r="F23">
-        <v>21.88999938964844</v>
+        <v>18.07999992370605</v>
       </c>
       <c r="G23">
-        <v>18.04999923706055</v>
+        <v>12.5649995803833</v>
       </c>
       <c r="H23">
-        <v>112123800</v>
+        <v>328636590</v>
       </c>
       <c r="I23" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>3570176874</v>
@@ -3174,22 +3081,22 @@
         <v>44045</v>
       </c>
       <c r="D24">
-        <v>28</v>
+        <v>18.01000022888184</v>
       </c>
       <c r="E24">
-        <v>26.4020004272461</v>
+        <v>15.26000022888184</v>
       </c>
       <c r="F24">
-        <v>28.27799987792969</v>
+        <v>18.47999954223633</v>
       </c>
       <c r="G24">
-        <v>24.61199951171875</v>
+        <v>14.34000015258789</v>
       </c>
       <c r="H24">
-        <v>766266033</v>
+        <v>328636590</v>
       </c>
       <c r="I24" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>4733295135</v>
@@ -3290,22 +3197,22 @@
         <v>44136</v>
       </c>
       <c r="D25">
-        <v>39.52999877929688</v>
+        <v>16.29000091552734</v>
       </c>
       <c r="E25">
-        <v>44.41999816894531</v>
+        <v>18.27000045776367</v>
       </c>
       <c r="F25">
-        <v>47.27000045776367</v>
+        <v>20</v>
       </c>
       <c r="G25">
-        <v>37.34999847412109</v>
+        <v>16.15500068664551</v>
       </c>
       <c r="H25">
-        <v>1435682333</v>
+        <v>328636590</v>
       </c>
       <c r="I25" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>4318236786</v>
@@ -3406,22 +3313,22 @@
         <v>44227</v>
       </c>
       <c r="D26">
-        <v>239.3500061035156</v>
+        <v>23.31999969482422</v>
       </c>
       <c r="E26">
-        <v>283.4599914550781</v>
+        <v>23.3799991607666</v>
       </c>
       <c r="F26">
-        <v>354.8200073242188</v>
+        <v>29.53000068664551</v>
       </c>
       <c r="G26">
-        <v>235.8800048828125</v>
+        <v>22.52000045776367</v>
       </c>
       <c r="H26">
-        <v>278228356</v>
+        <v>328636590</v>
       </c>
       <c r="I26" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>6310118176</v>
@@ -3522,22 +3429,22 @@
         <v>44318</v>
       </c>
       <c r="D27">
-        <v>67.30056631934143</v>
+        <v>20.29999923706055</v>
       </c>
       <c r="E27">
-        <v>69.52924346923828</v>
+        <v>19.04999923706055</v>
       </c>
       <c r="F27">
-        <v>72.48583215411878</v>
+        <v>20.3700008392334</v>
       </c>
       <c r="G27">
-        <v>65.86271341112901</v>
+        <v>16.79000091552734</v>
       </c>
       <c r="H27">
-        <v>199618386</v>
+        <v>328636590</v>
       </c>
       <c r="I27" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>5668389755</v>
@@ -3638,22 +3545,22 @@
         <v>44409</v>
       </c>
       <c r="D28">
-        <v>254.2599945068359</v>
+        <v>19.64999961853028</v>
       </c>
       <c r="E28">
-        <v>281</v>
+        <v>25.82999992370605</v>
       </c>
       <c r="F28">
-        <v>289.239990234375</v>
+        <v>26.09499931335449</v>
       </c>
       <c r="G28">
-        <v>227.25</v>
+        <v>18.75</v>
       </c>
       <c r="H28">
-        <v>250955140</v>
+        <v>328636590</v>
       </c>
       <c r="I28" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>5529135765</v>
@@ -3754,22 +3661,22 @@
         <v>44500</v>
       </c>
       <c r="D29">
-        <v>80.87172081815871</v>
+        <v>26.85000038146973</v>
       </c>
       <c r="E29">
-        <v>78.30628967285156</v>
+        <v>30.96999931335449</v>
       </c>
       <c r="F29">
-        <v>84.50996293035827</v>
+        <v>32.55799865722656</v>
       </c>
       <c r="G29">
-        <v>78.21299557369527</v>
+        <v>26.53000068664551</v>
       </c>
       <c r="H29">
-        <v>123248686</v>
+        <v>328636590</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>7657089843</v>
@@ -3870,22 +3777,22 @@
         <v>44598</v>
       </c>
       <c r="D30">
-        <v>495.3999938964844</v>
+        <v>26.71999931335449</v>
       </c>
       <c r="E30">
-        <v>471.1900024414063</v>
+        <v>25.94000053405762</v>
       </c>
       <c r="F30">
-        <v>531.030029296875</v>
+        <v>28.1200008392334</v>
       </c>
       <c r="G30">
-        <v>435.4200134277344</v>
+        <v>23.34000015258789</v>
       </c>
       <c r="H30">
-        <v>24003656</v>
+        <v>328636590</v>
       </c>
       <c r="I30" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>7648804604</v>
@@ -3986,22 +3893,22 @@
         <v>44689</v>
       </c>
       <c r="D31">
-        <v>18</v>
+        <v>29.29999923706055</v>
       </c>
       <c r="E31">
-        <v>17.06999969482422</v>
+        <v>23.72999954223633</v>
       </c>
       <c r="F31">
-        <v>19.19000053405762</v>
+        <v>30.04000091552734</v>
       </c>
       <c r="G31">
-        <v>13.65999984741211</v>
+        <v>21.89500045776367</v>
       </c>
       <c r="H31">
-        <v>453568899</v>
+        <v>328636590</v>
       </c>
       <c r="I31" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>8172900758</v>
@@ -4102,22 +4009,22 @@
         <v>44780</v>
       </c>
       <c r="D32">
-        <v>438.989990234375</v>
+        <v>28.30999946594238</v>
       </c>
       <c r="E32">
-        <v>434.6199951171875</v>
+        <v>28.96999931335449</v>
       </c>
       <c r="F32">
-        <v>521.5800170898438</v>
+        <v>31.52000045776367</v>
       </c>
       <c r="G32">
-        <v>429.510009765625</v>
+        <v>27.77000045776367</v>
       </c>
       <c r="H32">
-        <v>207519000</v>
+        <v>328636590</v>
       </c>
       <c r="I32" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>8771122319</v>
@@ -4218,22 +4125,22 @@
         <v>44871</v>
       </c>
       <c r="D33">
-        <v>35.86999893188477</v>
+        <v>31.39999961853028</v>
       </c>
       <c r="E33">
-        <v>39.33000183105469</v>
+        <v>29.19000053405762</v>
       </c>
       <c r="F33">
-        <v>40.15999984741211</v>
+        <v>32.44800186157227</v>
       </c>
       <c r="G33">
-        <v>32.81000137329102</v>
+        <v>27.32999992370605</v>
       </c>
       <c r="H33">
-        <v>60308678</v>
+        <v>328636590</v>
       </c>
       <c r="I33" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>9069178704</v>
@@ -4334,22 +4241,22 @@
         <v>44962</v>
       </c>
       <c r="D34">
-        <v>73.06525321532409</v>
+        <v>29.02000045776367</v>
       </c>
       <c r="E34">
-        <v>76.00099182128906</v>
+        <v>28.54000091552734</v>
       </c>
       <c r="F34">
-        <v>82.31330747960106</v>
+        <v>32.18000030517578</v>
       </c>
       <c r="G34">
-        <v>73.04649047842913</v>
+        <v>27.96999931335449</v>
       </c>
       <c r="H34">
-        <v>539679667</v>
+        <v>328636590</v>
       </c>
       <c r="I34" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>9050336283</v>
@@ -4462,22 +4369,22 @@
         <v>45053</v>
       </c>
       <c r="D35">
-        <v>104.9499969482422</v>
+        <v>22.90999984741211</v>
       </c>
       <c r="E35">
-        <v>120.5800018310547</v>
+        <v>28.79000091552734</v>
       </c>
       <c r="F35">
-        <v>122.9199981689453</v>
+        <v>29.65999984741211</v>
       </c>
       <c r="G35">
-        <v>101.1500015258789</v>
+        <v>22.13999938964844</v>
       </c>
       <c r="H35">
-        <v>10664912097</v>
+        <v>328636590</v>
       </c>
       <c r="I35" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>6974145615</v>
@@ -4578,22 +4485,22 @@
         <v>45144</v>
       </c>
       <c r="D36">
-        <v>49.27694892718193</v>
+        <v>36.58000183105469</v>
       </c>
       <c r="E36">
-        <v>53.75752258300781</v>
+        <v>36.59000015258789</v>
       </c>
       <c r="F36">
-        <v>53.92624744312793</v>
+        <v>38.4900016784668</v>
       </c>
       <c r="G36">
-        <v>48.96762240078827</v>
+        <v>34.0099983215332</v>
       </c>
       <c r="H36">
-        <v>3953196953</v>
+        <v>328636590</v>
       </c>
       <c r="I36" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>11547858593</v>
@@ -4694,22 +4601,22 @@
         <v>45326</v>
       </c>
       <c r="D37">
-        <v>60.88999938964844</v>
+        <v>40.36999893188477</v>
       </c>
       <c r="E37">
-        <v>76.61000061035156</v>
+        <v>52.65000152587891</v>
       </c>
       <c r="F37">
-        <v>77.26000213623047</v>
+        <v>52.7599983215332</v>
       </c>
       <c r="G37">
-        <v>60.08000183105469</v>
+        <v>38.77999877929688</v>
       </c>
       <c r="H37">
-        <v>136895573</v>
+        <v>328636590</v>
       </c>
       <c r="I37" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>13349851645</v>
@@ -4810,22 +4717,22 @@
         <v>45417</v>
       </c>
       <c r="D38">
-        <v>528.1699829101562</v>
+        <v>50.33000183105469</v>
       </c>
       <c r="E38">
-        <v>560.7999877929688</v>
+        <v>60.29000091552734</v>
       </c>
       <c r="F38">
-        <v>605.4500122070312</v>
+        <v>68.75</v>
       </c>
       <c r="G38">
-        <v>512.1199951171875</v>
+        <v>49.45000076293945</v>
       </c>
       <c r="H38">
-        <v>185748673</v>
+        <v>328636590</v>
       </c>
       <c r="I38" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>16973314490</v>
@@ -4926,22 +4833,22 @@
         <v>45508</v>
       </c>
       <c r="D39">
-        <v>178.6199951171875</v>
+        <v>59.38000106811523</v>
       </c>
       <c r="E39">
-        <v>199.979995727539</v>
+        <v>51.29000091552734</v>
       </c>
       <c r="F39">
-        <v>202.6399993896484</v>
+        <v>63.09999847412109</v>
       </c>
       <c r="G39">
-        <v>155.9700012207031</v>
+        <v>49.79000091552734</v>
       </c>
       <c r="H39">
-        <v>158300823</v>
+        <v>328636590</v>
       </c>
       <c r="I39" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>17656978725</v>
@@ -5042,22 +4949,22 @@
         <v>45599</v>
       </c>
       <c r="D40">
-        <v>296.7900085449219</v>
+        <v>50.34000015258789</v>
       </c>
       <c r="E40">
-        <v>345.9700012207031</v>
+        <v>52.9900016784668</v>
       </c>
       <c r="F40">
-        <v>377.4200134277344</v>
+        <v>54.79600143432617</v>
       </c>
       <c r="G40">
-        <v>295.0799865722656</v>
+        <v>45.15000152587891</v>
       </c>
       <c r="H40">
-        <v>250955140</v>
+        <v>328636590</v>
       </c>
       <c r="I40" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>16695901999</v>
@@ -5158,22 +5065,22 @@
         <v>45690</v>
       </c>
       <c r="D41">
-        <v>18.96999931335449</v>
+        <v>65.84999847412109</v>
       </c>
       <c r="E41">
-        <v>23.72999954223633</v>
+        <v>52.47000122070312</v>
       </c>
       <c r="F41">
-        <v>27.54999923706055</v>
+        <v>71.30000305175781</v>
       </c>
       <c r="G41">
-        <v>18.78000068664551</v>
+        <v>50.9010009765625</v>
       </c>
       <c r="H41">
-        <v>4757218036</v>
+        <v>328636590</v>
       </c>
       <c r="I41" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>22115604332</v>
@@ -5286,22 +5193,22 @@
         <v>45781</v>
       </c>
       <c r="D42">
-        <v>113.3399963378906</v>
+        <v>46.88000106811523</v>
       </c>
       <c r="E42">
-        <v>103.1699981689453</v>
+        <v>53.59000015258789</v>
       </c>
       <c r="F42">
-        <v>127.5670013427734</v>
+        <v>57.15499877929688</v>
       </c>
       <c r="G42">
-        <v>102.1500015258789</v>
+        <v>46.2599983215332</v>
       </c>
       <c r="H42">
-        <v>168459019</v>
+        <v>328636590</v>
       </c>
       <c r="I42" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>15596917070</v>
@@ -5402,22 +5309,22 @@
         <v>45872</v>
       </c>
       <c r="D43">
-        <v>448.9500122070313</v>
+        <v>57.5</v>
       </c>
       <c r="E43">
-        <v>423.7000122070313</v>
+        <v>77.61000061035156</v>
       </c>
       <c r="F43">
-        <v>457.7999877929687</v>
+        <v>80.68000030517578</v>
       </c>
       <c r="G43">
-        <v>409.25</v>
+        <v>54.36999893188477</v>
       </c>
       <c r="H43">
-        <v>250955140</v>
+        <v>328636590</v>
       </c>
       <c r="I43" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>17815594768</v>
